--- a/자작/BeatFighter/Sheets/StageTable.xlsx
+++ b/자작/BeatFighter/Sheets/StageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80A8CE-9899-4AF8-9A63-92181C14F2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E1261-0757-47A2-8391-BFCFBF963957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,5 +471,6 @@
   <autoFilter ref="A2:G2" xr:uid="{3529AB04-BBC3-4C04-B395-19B2F558E5CC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/자작/BeatFighter/Sheets/StageTable.xlsx
+++ b/자작/BeatFighter/Sheets/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E1261-0757-47A2-8391-BFCFBF963957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F2DA3-C523-4BD3-A84F-120397EF63CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="7560" windowWidth="25725" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -449,6 +449,18 @@
       <c r="C3" s="1">
         <v>20000</v>
       </c>
+      <c r="D3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20000</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/자작/BeatFighter/Sheets/StageTable.xlsx
+++ b/자작/BeatFighter/Sheets/StageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F2DA3-C523-4BD3-A84F-120397EF63CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF76532-9CA3-4D9D-8756-E4CB55031E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7560" yWindow="7560" windowWidth="25725" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -449,18 +449,6 @@
       <c r="C3" s="1">
         <v>20000</v>
       </c>
-      <c r="D3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20000</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/자작/BeatFighter/Sheets/StageTable.xlsx
+++ b/자작/BeatFighter/Sheets/StageTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF76532-9CA3-4D9D-8756-E4CB55031E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DE42D-2031-4F90-A8D4-28EFD442D523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="7560" windowWidth="25725" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,26 @@
   </si>
   <si>
     <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob1Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob5Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob4Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob3Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob2Level$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -411,12 +431,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,19 +447,34 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -449,8 +484,11 @@
       <c r="C3" s="1">
         <v>20000</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -461,14 +499,23 @@
         <v>20000</v>
       </c>
       <c r="D4" s="1">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>20000</v>
       </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G2" xr:uid="{3529AB04-BBC3-4C04-B395-19B2F558E5CC}"/>
+  <autoFilter ref="A2:L2" xr:uid="{A0A400F0-BE5F-44A9-9C9C-88BC0AE6B691}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/자작/BeatFighter/Sheets/StageTable.xlsx
+++ b/자작/BeatFighter/Sheets/StageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DE42D-2031-4F90-A8D4-28EFD442D523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A32FB-74DE-4794-A42B-4F985647A230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,19 +499,19 @@
         <v>20000</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>20000</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>20000</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/StageTable.xlsx
+++ b/자작/BeatFighter/Sheets/StageTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A32FB-74DE-4794-A42B-4F985647A230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B926EA-8012-425B-A6B8-A85C3D04B659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StageTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StageTable!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
